--- a/KnowledgeGraph/data/risk_level.xlsx
+++ b/KnowledgeGraph/data/risk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="22271" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>R1低风险产品</t>
   </si>
   <si>
-    <t>一级(低)</t>
+    <t>一级,一级(低),R1</t>
   </si>
   <si>
     <t>谨慎型，该级别理财产品一般由银行保证本金的完全偿付，产品收益随投资表现变动，且较少受到市场波动和政策法规变化等风险因素的影响。</t>
@@ -37,7 +37,7 @@
     <t>R2中低风险产品</t>
   </si>
   <si>
-    <t>二级(中低)</t>
+    <t>二级,二级(中低),,R2</t>
   </si>
   <si>
     <t>稳健型，该级别理财产品不保证本金的偿付，但本金风险相对较小，收益浮动相对可控。</t>
@@ -46,7 +46,7 @@
     <t>R3中等风险产品</t>
   </si>
   <si>
-    <t>三级(中)</t>
+    <t>三级,三级(中),,R3</t>
   </si>
   <si>
     <t>平衡型，该级别理财产品不保证本金的偿付，有一定的本金风险，收益浮动且有一定波动。</t>
@@ -55,7 +55,7 @@
     <t>R4中高风险产品</t>
   </si>
   <si>
-    <t>四级(中高)</t>
+    <t>四级,四级(中高),R4</t>
   </si>
   <si>
     <t>进取型，该级别理财产品不保证本金的偿付，本金风险较大，收益浮动且波动较大，投资较易受到市场波动和政策法规变化等风险因素影响。</t>
@@ -64,7 +64,7 @@
     <t>R5高风险产品</t>
   </si>
   <si>
-    <t>五级(高)</t>
+    <t>五级,五级(高),R5</t>
   </si>
   <si>
     <t>激进型，该级别理财产品不保证本金的偿付，本金风险极大，同时收益浮动且波动极大，投资较易受到市场波动和政策法规变化等风险因素影响。</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,13 +86,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,19 +97,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,84 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +130,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,7 +158,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,13 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,145 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,8 +501,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -477,56 +527,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
